--- a/UML Veneno.xlsx
+++ b/UML Veneno.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juaan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juaan\Desktop\POO\Proyectos\Veneno---Juego-de-Cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31B2604-81A7-4221-A8C7-84DF8B48E817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AB0F3-DC85-4B46-8FD1-E865672F2C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C9E69DB-F611-4106-B556-AB0E81D2C699}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="UML" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>Mazo</t>
   </si>
@@ -78,15 +78,6 @@
     <t>-sumaValores: double</t>
   </si>
   <si>
-    <t>1..*</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
-    <t>0 - 4</t>
-  </si>
-  <si>
     <t>+reiniciarPilon(): void</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>Juego</t>
   </si>
   <si>
-    <t>2 - 4</t>
-  </si>
-  <si>
     <t>-cantidadJugadores: int</t>
   </si>
   <si>
@@ -187,6 +175,111 @@
   </si>
   <si>
     <t>+sumarPuntos(int): void</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  *</t>
+  </si>
+  <si>
+    <t>AppServidor</t>
+  </si>
+  <si>
+    <t>+ips: ArrayList&lt;String&gt;</t>
+  </si>
+  <si>
+    <t>+ip: String</t>
+  </si>
+  <si>
+    <t>+port: String</t>
+  </si>
+  <si>
+    <t>+servidor: Servidor</t>
+  </si>
+  <si>
+    <t>Controlador</t>
+  </si>
+  <si>
+    <t>+setModeloRemoto(T): void</t>
+  </si>
+  <si>
+    <t>+actualizar(IObservableRemoto, Object): void</t>
+  </si>
+  <si>
+    <t>+cantidadJugadores(int): void</t>
+  </si>
+  <si>
+    <t>+conectarse(String): void</t>
+  </si>
+  <si>
+    <t>+tirarCarta(int,String): void</t>
+  </si>
+  <si>
+    <t>-updateJugadorConectado(): void</t>
+  </si>
+  <si>
+    <t>-updateInicioRonda(): void</t>
+  </si>
+  <si>
+    <t>-updateTurno(): void</t>
+  </si>
+  <si>
+    <t>-updateCartaJugada(int,Carta,boolean,PilaPalo): void</t>
+  </si>
+  <si>
+    <t>-updateFinJuego(List&lt;Jugador&gt;): void</t>
+  </si>
+  <si>
+    <t>+iniciar(): void</t>
+  </si>
+  <si>
+    <t>+colaDeEspera(int,int): void</t>
+  </si>
+  <si>
+    <t>+iniciarPartida(): void</t>
+  </si>
+  <si>
+    <t>+generarCarta(ArrayList&lt;Carta&gt;): void</t>
+  </si>
+  <si>
+    <t>+reiniciarMano(): void</t>
+  </si>
+  <si>
+    <t>+jugarTurno():</t>
+  </si>
+  <si>
+    <t>+mostrarMensaje(String): void</t>
+  </si>
+  <si>
+    <t>+tirarCarta(int): void</t>
+  </si>
+  <si>
+    <t>+agregarCartaEnMesa(String,double): void</t>
+  </si>
+  <si>
+    <t>+reiniciarPila(String): void</t>
+  </si>
+  <si>
+    <t>+levantarCartas(int): void</t>
+  </si>
+  <si>
+    <t>+finJuego(ArrayList&lt;String&gt;): void</t>
+  </si>
+  <si>
+    <t>AppCliente</t>
+  </si>
+  <si>
+    <t>+ipServidor: String</t>
+  </si>
+  <si>
+    <t>+portServidor: String</t>
+  </si>
+  <si>
+    <t>+c: Cliente</t>
+  </si>
+  <si>
+    <t>IVista</t>
   </si>
 </sst>
 </file>
@@ -210,7 +303,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -306,11 +399,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -333,42 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -382,7 +450,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,15 +571,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
+      <xdr:colOff>677333</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:rowOff>49388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
+      <xdr:colOff>201084</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>98778</xdr:rowOff>
+      <xdr:rowOff>98779</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -481,8 +594,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2884714" y="4833056"/>
-          <a:ext cx="1602619" cy="2236611"/>
+          <a:off x="2963333" y="4818944"/>
+          <a:ext cx="1047751" cy="2250724"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -510,14 +623,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>7056</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>747889</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>719668</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>707</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>70557</xdr:rowOff>
     </xdr:to>
@@ -534,8 +647,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3055056" y="3873500"/>
-          <a:ext cx="1474612" cy="783168"/>
+          <a:off x="3033889" y="3788833"/>
+          <a:ext cx="981429" cy="867835"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -748,6 +861,490 @@
         <a:xfrm flipH="1">
           <a:off x="3083278" y="3125611"/>
           <a:ext cx="4515555" cy="211667"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61452</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92177</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE23FB7-5C09-4E77-B207-92DCBF1AF804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10160000" y="2857500"/>
+          <a:ext cx="2089356" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1424214</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1442357</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD60724C-B735-4646-8354-41F38F6804D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9978571" y="5261430"/>
+          <a:ext cx="18143" cy="852713"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Arco 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40631CE0-1C5B-47DE-A912-207ECE9F0085}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7174592" y="5916386"/>
+          <a:ext cx="312057" cy="363764"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 13372957"/>
+            <a:gd name="adj2" fmla="val 938538"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>452884</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>687917</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Conector recto 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAE1154-2E24-4E25-92C0-961ECECF5439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7480217" y="6001049"/>
+          <a:ext cx="235033" cy="126701"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179136</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>92135</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Conector recto de flecha 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E32E96-32B1-49E9-8DB3-9A73DDFA7DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6280150" y="5588000"/>
+          <a:ext cx="928436" cy="396935"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>881946</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Conector recto de flecha 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64A8E73-8AB5-4091-9D7B-FC4F66826496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9440335" y="9009945"/>
+          <a:ext cx="7054" cy="670277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>740834</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>747889</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDABAB90-A9CA-4591-A20D-93EA257DDF04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9299223" y="9031111"/>
+          <a:ext cx="7055" cy="677334"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>734787</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76A531-7E0F-4E73-96ED-B5DB241AB784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11121571" y="8073571"/>
+          <a:ext cx="2204359" cy="689430"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9072</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>716643</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>90715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Conector recto de flecha 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F083ABF-B495-43A6-9BEB-2F9EB0400C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11076215" y="9842500"/>
+          <a:ext cx="2231571" cy="408215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1073,366 +1670,619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58083F9F-85F2-4079-90BF-BA44F34FE71E}">
-  <dimension ref="C3:L46"/>
+  <dimension ref="C3:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="2.90625" customWidth="1"/>
     <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="12" max="12" width="22.6328125" customWidth="1"/>
+    <col min="12" max="12" width="35.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G3" s="16" t="s">
+    <row r="3" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G4" s="21"/>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G6" s="12" t="s">
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G7" s="12"/>
-      <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="K9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G10" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G11" s="21"/>
-      <c r="H11" s="13"/>
-      <c r="K11" s="23" t="s">
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="K9" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G10" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="K11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="K12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="14"/>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K13" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="P14" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="27"/>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="14"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="18"/>
+    </row>
+    <row r="16" spans="4:17" x14ac:dyDescent="0.35">
+      <c r="K16" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="18"/>
+      <c r="P16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" s="18"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="K17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="K12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="K13" s="23" t="s">
+      <c r="L17" s="18"/>
+      <c r="P17" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="18"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
+      <c r="K18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="K14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.35">
-      <c r="K16" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C17" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="K17" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C18" s="21"/>
-      <c r="D18" s="13"/>
-      <c r="K18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="13"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C19" s="12" t="s">
+      <c r="L18" s="23"/>
+      <c r="P18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="20"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="7"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="18"/>
+      <c r="P19" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="32"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C21" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C22" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="K22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="K23" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="G24" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="27"/>
+      <c r="I24" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="K25" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C20" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C21" s="12" t="s">
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="16"/>
+      <c r="G26" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="14"/>
+      <c r="K26" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="18"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="K27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="14"/>
+      <c r="K28" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G29" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="K29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="12"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G31" s="19"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G32" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G33" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G34" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K35" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K36" s="19"/>
+      <c r="L36" s="18"/>
+    </row>
+    <row r="37" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G37" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H37" s="27"/>
+      <c r="K37" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G38" s="22"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="33"/>
+    </row>
+    <row r="39" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="14"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="18"/>
+    </row>
+    <row r="40" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G40" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="L21" s="20"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="20"/>
-      <c r="K22" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C23" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="20"/>
-      <c r="K23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="20"/>
-      <c r="G24" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="L24" s="20"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C25" s="21"/>
-      <c r="D25" s="13"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="K25" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="G26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="K26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="L26" s="9"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="K27" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="G28" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="K28" s="25" t="s">
+      <c r="H40" s="14"/>
+      <c r="K40" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="L40" s="33"/>
+    </row>
+    <row r="41" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="14"/>
+      <c r="K41" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L41" s="33"/>
+    </row>
+    <row r="42" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G42" s="13"/>
+      <c r="H42" s="14"/>
+      <c r="K42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="33"/>
+    </row>
+    <row r="43" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G43" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="G29" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="K29" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="L29" s="28"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="G30" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="G32" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G33" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G34" s="29" t="s">
+      <c r="H43" s="14"/>
+      <c r="K43" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="L43" s="33"/>
+    </row>
+    <row r="44" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="K44" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="L44" s="33"/>
+    </row>
+    <row r="45" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G45" s="13"/>
+      <c r="H45" s="14"/>
+      <c r="K45" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="L45" s="33"/>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G46" s="15"/>
+      <c r="H46" s="16"/>
+      <c r="K46" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="L46" s="33"/>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K47" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L47" s="33"/>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K48" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L48" s="33"/>
+      <c r="P48" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="27"/>
+    </row>
+    <row r="49" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K49" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L49" s="34"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="18"/>
+    </row>
+    <row r="50" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="P50" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G37" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G38" s="21"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G40" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G41" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="20"/>
-    </row>
-    <row r="42" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G42" s="12"/>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G44" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="4"/>
-    </row>
-    <row r="45" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G45" s="12"/>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="7:9" x14ac:dyDescent="0.35">
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="Q50" s="18"/>
+    </row>
+    <row r="51" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="P51" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q51" s="18"/>
+    </row>
+    <row r="52" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="P52" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q52" s="18"/>
+    </row>
+    <row r="53" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="P53" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="36"/>
+    </row>
+    <row r="54" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K54" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="L54" s="27"/>
+      <c r="P54" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="36"/>
+    </row>
+    <row r="55" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K55" s="19"/>
+      <c r="L55" s="18"/>
+      <c r="P55" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="36"/>
+    </row>
+    <row r="56" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K56" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L56" s="33"/>
+      <c r="P56" s="31"/>
+      <c r="Q56" s="32"/>
+    </row>
+    <row r="57" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K57" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L57" s="33"/>
+    </row>
+    <row r="58" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K58" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="18"/>
+    </row>
+    <row r="59" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K59" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="L59" s="33"/>
+    </row>
+    <row r="60" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K60" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="33"/>
+    </row>
+    <row r="61" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K61" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="L61" s="33"/>
+    </row>
+    <row r="62" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K62" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="33"/>
+    </row>
+    <row r="63" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K63" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="L63" s="33"/>
+    </row>
+    <row r="64" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K64" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L64" s="33"/>
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K65" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L65" s="33"/>
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K66" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="L66" s="33"/>
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K67" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" s="33"/>
+    </row>
+    <row r="68" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K68" s="20"/>
+      <c r="L68" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="G39:H39"/>
+  <mergeCells count="106">
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -1449,28 +2299,34 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G39:H39"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/UML Veneno.xlsx
+++ b/UML Veneno.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juaan\Desktop\POO\Proyectos\Veneno---Juego-de-Cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664AB0F3-DC85-4B46-8FD1-E865672F2C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087FA3F8-6819-4923-A4B3-D62C69A4DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C9E69DB-F611-4106-B556-AB0E81D2C699}"/>
+    <workbookView xWindow="9620" yWindow="1380" windowWidth="7500" windowHeight="7110" xr2:uid="{6C9E69DB-F611-4106-B556-AB0E81D2C699}"/>
   </bookViews>
   <sheets>
     <sheet name="UML" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>Mazo</t>
   </si>
@@ -280,6 +280,54 @@
   </si>
   <si>
     <t>IVista</t>
+  </si>
+  <si>
+    <t>Serializador</t>
+  </si>
+  <si>
+    <t>-nomArch: String</t>
+  </si>
+  <si>
+    <t>+writeOneObject(Object): boolean</t>
+  </si>
+  <si>
+    <t>+addOneObject(Object): boolean</t>
+  </si>
+  <si>
+    <t>+readObjects():  Object[]</t>
+  </si>
+  <si>
+    <t>+borrarArchivo(): void</t>
+  </si>
+  <si>
+    <t>+recuperarDatos(): Arraylist&lt;Jugador&gt;</t>
+  </si>
+  <si>
+    <t>-actualizarRegistros(Jugador): void</t>
+  </si>
+  <si>
+    <t>-buscarHistorialJugador(Jugador): Jugador</t>
+  </si>
+  <si>
+    <t>-guardarResultados(): void</t>
+  </si>
+  <si>
+    <t>-restablecerSesion(): void</t>
+  </si>
+  <si>
+    <t>+verEstadisticas(): void</t>
+  </si>
+  <si>
+    <t>-partidasJugadas: int</t>
+  </si>
+  <si>
+    <t>-ratio: double</t>
+  </si>
+  <si>
+    <t>+restablecerSesion(): void</t>
+  </si>
+  <si>
+    <t>+ranking(ArrayList&lt;String&gt;): void</t>
   </si>
 </sst>
 </file>
@@ -303,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -410,11 +458,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -438,22 +499,44 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -462,40 +545,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,13 +857,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>77613</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>56444</xdr:rowOff>
+      <xdr:colOff>77614</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>743857</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>56444</xdr:rowOff>
     </xdr:to>
@@ -806,8 +880,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6173613" y="5376333"/>
-          <a:ext cx="1573387" cy="1651000"/>
+          <a:off x="6345971" y="5524500"/>
+          <a:ext cx="1428243" cy="1426230"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -943,14 +1017,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>1424214</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>72572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1442357</xdr:colOff>
+      <xdr:colOff>1442358</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>127001</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -965,8 +1039,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9978571" y="5261430"/>
-          <a:ext cx="18143" cy="852713"/>
+          <a:off x="9978571" y="5515429"/>
+          <a:ext cx="18144" cy="598715"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1161,9 +1235,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>881946</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>21167</xdr:rowOff>
+      <xdr:colOff>870857</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45357</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1184,8 +1258,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9440335" y="9009945"/>
-          <a:ext cx="7054" cy="670277"/>
+          <a:off x="9425214" y="9116786"/>
+          <a:ext cx="18143" cy="458611"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1214,9 +1288,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>740834</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>42333</xdr:rowOff>
+      <xdr:colOff>743857</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -1237,8 +1311,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9299223" y="9031111"/>
-          <a:ext cx="7055" cy="677334"/>
+          <a:off x="9298214" y="9144000"/>
+          <a:ext cx="4032" cy="459620"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1345,6 +1419,59 @@
         <a:xfrm flipH="1">
           <a:off x="11076215" y="9842500"/>
           <a:ext cx="2231571" cy="408215"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>689428</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99785</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69BA5BF-C71B-4A45-9D41-73813122BE7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11121571" y="3900714"/>
+          <a:ext cx="2159000" cy="553357"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1670,10 +1797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58083F9F-85F2-4079-90BF-BA44F34FE71E}">
-  <dimension ref="C3:Q68"/>
+  <dimension ref="C3:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1681,546 +1808,711 @@
     <col min="6" max="6" width="2.90625" customWidth="1"/>
     <col min="8" max="8" width="21.36328125" customWidth="1"/>
     <col min="12" max="12" width="35.90625" customWidth="1"/>
+    <col min="17" max="17" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="14"/>
+      <c r="H5" s="27"/>
+      <c r="K5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="16"/>
     </row>
     <row r="6" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14"/>
+      <c r="H6" s="27"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="34"/>
     </row>
     <row r="7" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="K7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="24"/>
     </row>
     <row r="8" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="27"/>
+      <c r="K8" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="K9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="K9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="24"/>
     </row>
     <row r="10" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="K10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="24"/>
     </row>
     <row r="11" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="K11" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="18"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="K11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
-      <c r="K12" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="14"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="32"/>
+      <c r="K12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="24"/>
     </row>
     <row r="13" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="18"/>
+      <c r="K13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="24"/>
     </row>
     <row r="14" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="18"/>
-      <c r="P14" s="26" t="s">
+      <c r="K14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="P14" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="27"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="14"/>
-      <c r="P15" s="19"/>
+      <c r="K15" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="P15" s="17"/>
       <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K16" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="K16" s="17"/>
       <c r="L16" s="18"/>
-      <c r="P16" s="17" t="s">
+      <c r="P16" s="19" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="K17" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="18"/>
-      <c r="P17" s="17" t="s">
+      <c r="D17" s="16"/>
+      <c r="K17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="27"/>
+      <c r="P17" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="K18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="23"/>
-      <c r="P18" s="17" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="26"/>
+      <c r="K18" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="27"/>
+      <c r="P18" s="19" t="s">
         <v>52</v>
       </c>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="7"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L19" s="18"/>
-      <c r="P19" s="31" t="s">
+      <c r="K19" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" s="27"/>
+      <c r="P19" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="32"/>
+      <c r="Q19" s="21"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="18"/>
+      <c r="D20" s="27"/>
+      <c r="K20" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="27"/>
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="K21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L21" s="14"/>
+      <c r="K21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="27"/>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="K22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="14"/>
+      <c r="D22" s="27"/>
+      <c r="G22" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="16"/>
+      <c r="K22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="K23" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="14"/>
+      <c r="D23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
+      <c r="K23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="L23" s="40"/>
+      <c r="P23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q23" s="16"/>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="G24" s="26" t="s">
-        <v>1</v>
+      <c r="D24" s="27"/>
+      <c r="G24" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="27"/>
-      <c r="I24" s="30" t="s">
+      <c r="I24" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="14"/>
+      <c r="K24" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="40"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="18"/>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="K25" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="14"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="26"/>
+      <c r="G25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="K25" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="L25" s="43"/>
+      <c r="P25" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q25" s="18"/>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="G26" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H26" s="14"/>
-      <c r="K26" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="18"/>
+      <c r="D26" s="32"/>
+      <c r="G26" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="K26" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="43"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="18"/>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="H27" s="18"/>
-      <c r="K27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="10"/>
+      <c r="G27" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="K27" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="L27" s="43"/>
+      <c r="P27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G28" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H28" s="14"/>
-      <c r="K28" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="L28" s="10"/>
+      <c r="G28" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="27"/>
+      <c r="K28" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="L28" s="43"/>
+      <c r="P28" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="39"/>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="K29" s="11" t="s">
+      <c r="G29" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="K29" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="L29" s="43"/>
+      <c r="P29" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q29" s="18"/>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="G30" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="K30" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G30" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="14"/>
+      <c r="L30" s="41"/>
+      <c r="P30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G31" s="19"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="18"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H33" s="14"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H34" s="21"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="L35" s="27"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K36" s="19"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="18"/>
     </row>
     <row r="37" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="27"/>
-      <c r="K37" s="17" t="s">
+      <c r="H37" s="16"/>
+      <c r="K37" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="L37" s="33"/>
+      <c r="L37" s="24"/>
     </row>
     <row r="38" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G38" s="22"/>
-      <c r="H38" s="23"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="26"/>
       <c r="I38" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K38" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="33"/>
+      <c r="L38" s="24"/>
     </row>
     <row r="39" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H39" s="14"/>
-      <c r="K39" s="19"/>
+      <c r="H39" s="27"/>
+      <c r="K39" s="17"/>
       <c r="L39" s="18"/>
     </row>
     <row r="40" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G40" s="13" t="s">
+      <c r="G40" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="14"/>
-      <c r="K40" s="17" t="s">
+      <c r="H40" s="27"/>
+      <c r="K40" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="33"/>
+      <c r="L40" s="24"/>
     </row>
     <row r="41" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="14"/>
-      <c r="K41" s="17" t="s">
+      <c r="H41" s="27"/>
+      <c r="K41" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="33"/>
+      <c r="L41" s="24"/>
     </row>
     <row r="42" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c r="K42" s="17" t="s">
+      <c r="G42" s="25"/>
+      <c r="H42" s="27"/>
+      <c r="K42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="33"/>
+      <c r="L42" s="24"/>
     </row>
     <row r="43" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="H43" s="14"/>
-      <c r="K43" s="17" t="s">
+      <c r="H43" s="27"/>
+      <c r="K43" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L43" s="33"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="7:17" x14ac:dyDescent="0.35">
       <c r="G44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H44" s="4"/>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="L44" s="33"/>
+      <c r="L44" s="24"/>
     </row>
     <row r="45" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G45" s="13"/>
-      <c r="H45" s="14"/>
-      <c r="K45" s="17" t="s">
+      <c r="G45" s="25"/>
+      <c r="H45" s="27"/>
+      <c r="K45" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="23"/>
+    </row>
+    <row r="46" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="G46" s="31"/>
+      <c r="H46" s="32"/>
+      <c r="K46" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="L45" s="33"/>
-    </row>
-    <row r="46" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G46" s="15"/>
-      <c r="H46" s="16"/>
-      <c r="K46" s="17" t="s">
+      <c r="L46" s="24"/>
+    </row>
+    <row r="47" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K47" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="L46" s="33"/>
-    </row>
-    <row r="47" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K47" s="17" t="s">
+      <c r="L47" s="12"/>
+    </row>
+    <row r="48" spans="7:17" x14ac:dyDescent="0.35">
+      <c r="K48" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L47" s="33"/>
-    </row>
-    <row r="48" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K48" s="17" t="s">
+      <c r="L48" s="12"/>
+      <c r="P48" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q48" s="16"/>
+    </row>
+    <row r="49" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K49" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="L48" s="33"/>
-      <c r="P48" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="27"/>
-    </row>
-    <row r="49" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K49" s="20" t="s">
+      <c r="L49" s="12"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="18"/>
+    </row>
+    <row r="50" spans="11:17" x14ac:dyDescent="0.35">
+      <c r="K50" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="L49" s="34"/>
-      <c r="P49" s="19"/>
-      <c r="Q49" s="18"/>
-    </row>
-    <row r="50" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P50" s="17" t="s">
+      <c r="L50" s="13"/>
+      <c r="P50" s="19" t="s">
         <v>50</v>
       </c>
       <c r="Q50" s="18"/>
     </row>
     <row r="51" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P51" s="17" t="s">
+      <c r="P51" s="19" t="s">
         <v>51</v>
       </c>
       <c r="Q51" s="18"/>
     </row>
     <row r="52" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P52" s="17" t="s">
+      <c r="P52" s="19" t="s">
         <v>52</v>
       </c>
       <c r="Q52" s="18"/>
     </row>
     <row r="53" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P53" s="35" t="s">
+      <c r="P53" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="Q53" s="36"/>
+      <c r="Q53" s="23"/>
     </row>
     <row r="54" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K54" s="26" t="s">
+      <c r="K54" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="L54" s="27"/>
-      <c r="P54" s="35" t="s">
+      <c r="L54" s="16"/>
+      <c r="P54" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="Q54" s="36"/>
+      <c r="Q54" s="23"/>
     </row>
     <row r="55" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K55" s="19"/>
+      <c r="K55" s="17"/>
       <c r="L55" s="18"/>
-      <c r="P55" s="35" t="s">
+      <c r="P55" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="Q55" s="36"/>
+      <c r="Q55" s="23"/>
     </row>
     <row r="56" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K56" s="17" t="s">
+      <c r="K56" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L56" s="33"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="32"/>
+      <c r="L56" s="24"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="21"/>
     </row>
     <row r="57" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K57" s="17" t="s">
+      <c r="K57" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="L57" s="33"/>
+      <c r="L57" s="24"/>
     </row>
     <row r="58" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K58" s="17" t="s">
+      <c r="K58" s="19" t="s">
         <v>67</v>
       </c>
       <c r="L58" s="18"/>
     </row>
     <row r="59" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K59" s="17" t="s">
+      <c r="K59" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="L59" s="33"/>
+      <c r="L59" s="24"/>
     </row>
     <row r="60" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K60" s="17" t="s">
+      <c r="K60" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L60" s="33"/>
+      <c r="L60" s="24"/>
     </row>
     <row r="61" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K61" s="17" t="s">
+      <c r="K61" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L61" s="33"/>
+      <c r="L61" s="24"/>
     </row>
     <row r="62" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K62" s="17" t="s">
+      <c r="K62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L62" s="33"/>
+      <c r="L62" s="24"/>
     </row>
     <row r="63" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K63" s="17" t="s">
+      <c r="K63" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="L63" s="33"/>
+      <c r="L63" s="24"/>
     </row>
     <row r="64" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K64" s="17" t="s">
+      <c r="K64" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="L64" s="33"/>
+      <c r="L64" s="24"/>
     </row>
     <row r="65" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K65" s="17" t="s">
+      <c r="K65" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="L65" s="33"/>
+      <c r="L65" s="24"/>
     </row>
     <row r="66" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K66" s="17" t="s">
+      <c r="K66" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="L66" s="33"/>
+      <c r="L66" s="24"/>
     </row>
     <row r="67" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K67" s="17" t="s">
+      <c r="K67" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="L67" s="33"/>
+      <c r="L67" s="24"/>
     </row>
     <row r="68" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K68" s="20"/>
-      <c r="L68" s="34"/>
+      <c r="K68" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="L68" s="22"/>
+    </row>
+    <row r="69" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K69" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="119">
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
     <mergeCell ref="K68:L68"/>
     <mergeCell ref="P48:Q48"/>
     <mergeCell ref="P49:Q49"/>
@@ -2241,92 +2533,9 @@
     <mergeCell ref="K60:L60"/>
     <mergeCell ref="K61:L61"/>
     <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K49:L49"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/UML Veneno.xlsx
+++ b/UML Veneno.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juaan\Desktop\POO\Proyectos\Veneno---Juego-de-Cartas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087FA3F8-6819-4923-A4B3-D62C69A4DB9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE626DF-A5E3-4551-BF26-F7857B029012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="1380" windowWidth="7500" windowHeight="7110" xr2:uid="{6C9E69DB-F611-4106-B556-AB0E81D2C699}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6C9E69DB-F611-4106-B556-AB0E81D2C699}"/>
   </bookViews>
   <sheets>
-    <sheet name="UML" sheetId="2" r:id="rId1"/>
+    <sheet name="UML" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="105">
   <si>
     <t>Mazo</t>
   </si>
@@ -69,33 +69,21 @@
     <t>-enMesa: boolean</t>
   </si>
   <si>
-    <t>-cartasEnMazo: int</t>
-  </si>
-  <si>
     <t>-SUMA_MIN: static final int</t>
   </si>
   <si>
     <t>-sumaValores: double</t>
   </si>
   <si>
-    <t>+reiniciarPilon(): void</t>
-  </si>
-  <si>
     <t>+mezclar(): void</t>
   </si>
   <si>
-    <t>+repartir(): void</t>
-  </si>
-  <si>
     <t>-nombre: String</t>
   </si>
   <si>
     <t>-miTurno: boolean</t>
   </si>
   <si>
-    <t>+tirarCarta(): boolean</t>
-  </si>
-  <si>
     <t>Juego</t>
   </si>
   <si>
@@ -123,45 +111,18 @@
     <t>-manosJugadas: int</t>
   </si>
   <si>
-    <t>-indiceCartaJugadaTurnoActual: int</t>
-  </si>
-  <si>
-    <t>-reiniciarPila: boolean</t>
-  </si>
-  <si>
-    <t>+agregarJugador(String): Jugador</t>
-  </si>
-  <si>
     <t>+repartirCartas(): void</t>
   </si>
   <si>
     <t>+jugarRonda(): void</t>
   </si>
   <si>
-    <t>+tirarCarta(int, String): void</t>
-  </si>
-  <si>
-    <t>+verificarSuma(PilaPalo, int): boolean</t>
-  </si>
-  <si>
-    <t>+pasarTurno(): void</t>
-  </si>
-  <si>
-    <t>+finPartida(): void</t>
-  </si>
-  <si>
-    <t>+obtenerJugadorActual(): Jugador</t>
-  </si>
-  <si>
     <t>-MAX_CARTAS: static final int</t>
   </si>
   <si>
     <t>+juntarCartas(): void</t>
   </si>
   <si>
-    <t>+agregarCarta(Carta): void</t>
-  </si>
-  <si>
     <t>-id: int</t>
   </si>
   <si>
@@ -171,18 +132,12 @@
     <t>-puntoALevantar: int</t>
   </si>
   <si>
-    <t>+recibirCartas(ArrayList&lt;Carta&gt;): void</t>
-  </si>
-  <si>
     <t>+sumarPuntos(int): void</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">  *</t>
-  </si>
-  <si>
     <t>AppServidor</t>
   </si>
   <si>
@@ -210,12 +165,6 @@
     <t>+cantidadJugadores(int): void</t>
   </si>
   <si>
-    <t>+conectarse(String): void</t>
-  </si>
-  <si>
-    <t>+tirarCarta(int,String): void</t>
-  </si>
-  <si>
     <t>-updateJugadorConectado(): void</t>
   </si>
   <si>
@@ -225,12 +174,6 @@
     <t>-updateTurno(): void</t>
   </si>
   <si>
-    <t>-updateCartaJugada(int,Carta,boolean,PilaPalo): void</t>
-  </si>
-  <si>
-    <t>-updateFinJuego(List&lt;Jugador&gt;): void</t>
-  </si>
-  <si>
     <t>+iniciar(): void</t>
   </si>
   <si>
@@ -240,9 +183,6 @@
     <t>+iniciarPartida(): void</t>
   </si>
   <si>
-    <t>+generarCarta(ArrayList&lt;Carta&gt;): void</t>
-  </si>
-  <si>
     <t>+reiniciarMano(): void</t>
   </si>
   <si>
@@ -252,15 +192,6 @@
     <t>+mostrarMensaje(String): void</t>
   </si>
   <si>
-    <t>+tirarCarta(int): void</t>
-  </si>
-  <si>
-    <t>+agregarCartaEnMesa(String,double): void</t>
-  </si>
-  <si>
-    <t>+reiniciarPila(String): void</t>
-  </si>
-  <si>
     <t>+levantarCartas(int): void</t>
   </si>
   <si>
@@ -328,6 +259,96 @@
   </si>
   <si>
     <t>+ranking(ArrayList&lt;String&gt;): void</t>
+  </si>
+  <si>
+    <t>-pilas: HashMap&lt;&gt;</t>
+  </si>
+  <si>
+    <t>+agregarJugador(String): void</t>
+  </si>
+  <si>
+    <t>+tirarCarta(ICarta, Palo): void</t>
+  </si>
+  <si>
+    <t>-verificarSuma(PilaPalo, int): boolean</t>
+  </si>
+  <si>
+    <t>-pasarTurno(): void</t>
+  </si>
+  <si>
+    <t>-finPartida(): void</t>
+  </si>
+  <si>
+    <t>+obtenerJugadorActual(): IJugador</t>
+  </si>
+  <si>
+    <t>+inicio(): void</t>
+  </si>
+  <si>
+    <t>+tirarCarta(ICarta): void</t>
+  </si>
+  <si>
+    <t>+envenenar(): void</t>
+  </si>
+  <si>
+    <t>+envenenar(Palo): void</t>
+  </si>
+  <si>
+    <t>-updateCartaJugada(ICarta,IPilaPalo): void</t>
+  </si>
+  <si>
+    <t>-updateFinJuego(List&lt;IJugador&gt;): void</t>
+  </si>
+  <si>
+    <t>Ijuego</t>
+  </si>
+  <si>
+    <t>&lt;&lt;Interface&gt;&gt;</t>
+  </si>
+  <si>
+    <t>+recuperarDatos(): ArrayList&lt;IJugador&gt;</t>
+  </si>
+  <si>
+    <t>-cantidadCartasEnMazo: int</t>
+  </si>
+  <si>
+    <t>+repartir(): ArrayList&lt;ICarta&gt;</t>
+  </si>
+  <si>
+    <t>ICarta</t>
+  </si>
+  <si>
+    <t>+recibirCartas(ArrayList&lt;ICarta&gt;): void</t>
+  </si>
+  <si>
+    <t>IJugador</t>
+  </si>
+  <si>
+    <t>-reiniciar: boolean</t>
+  </si>
+  <si>
+    <t>-levante: int</t>
+  </si>
+  <si>
+    <t>+reiniciarPila(): void</t>
+  </si>
+  <si>
+    <t>+agregarCarta(ICarta): void</t>
+  </si>
+  <si>
+    <t>IPilaPalo</t>
+  </si>
+  <si>
+    <t>+conectarse(String): IJugador</t>
+  </si>
+  <si>
+    <t>+generarCarta(ArrayList&lt;ICarta&gt;): void</t>
+  </si>
+  <si>
+    <t>+agregarCartaEnMesa(IPilaPalo): void</t>
+  </si>
+  <si>
+    <t>+reiniciarPila(IPilaPalo): void</t>
   </si>
 </sst>
 </file>
@@ -343,15 +364,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -471,105 +504,198 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,138 +717,32 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>607787</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>136072</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>725714</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+        <xdr:cNvPr id="2" name="Conector recto de flecha 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD5D71B-F536-429D-9990-20C113EE8FB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0721323A-2010-41C2-984A-75B9B373D7BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2893787" y="1224643"/>
-          <a:ext cx="1641927" cy="1623786"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>677333</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>49388</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>201084</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>98779</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Conector recto de flecha 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04BD8ED8-45BA-47D1-B29C-E799EA37DC0B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2963333" y="4818944"/>
-          <a:ext cx="1047751" cy="2250724"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>747889</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>119944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>707</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>70557</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Conector recto de flecha 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A2E2CF-6CA8-49C0-9DF6-0C569BC87B70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3033889" y="3788833"/>
-          <a:ext cx="981429" cy="867835"/>
+        <a:xfrm>
+          <a:off x="3079750" y="1028700"/>
+          <a:ext cx="2197100" cy="12700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -751,22 +771,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>45357</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:colOff>304271</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>726722</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>155222</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Conector recto de flecha 12">
+        <xdr:cNvPr id="6" name="Conector recto de flecha 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5F30953-2D1F-45A1-9212-EEB569381400}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD6E5701-8D44-40E9-940A-ED9B8B5E9F0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -774,8 +794,67 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6141357" y="1164168"/>
-          <a:ext cx="1443365" cy="1559276"/>
+          <a:off x="6865938" y="2407708"/>
+          <a:ext cx="25929" cy="688976"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Conector recto de flecha 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AF7D76-CD0C-4E3F-BDEE-B712D58DDF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9036050" y="2571750"/>
+          <a:ext cx="1390650" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -793,6 +872,171 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Conector recto de flecha 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533CAC9B-95F1-4D29-8B49-4DC546D8AB7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="2844800"/>
+          <a:ext cx="6350" cy="806450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Conector recto de flecha 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34720E98-2336-437E-846A-3CF2D72038FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9004300" y="4140200"/>
+          <a:ext cx="1422400" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133352</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>707761</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Conector recto de flecha 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE80155-9FE5-464B-898A-4509B9C774BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12132206" y="4001823"/>
+          <a:ext cx="1335086" cy="161660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -804,31 +1048,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>56444</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>115914</xdr:rowOff>
+      <xdr:colOff>304536</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12964</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>719666</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>310886</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165364</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Conector recto de flecha 13">
+        <xdr:cNvPr id="27" name="Conector recto de flecha 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3280748-36F1-4F7C-912D-844010E08EB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B2945D-B728-4280-8C14-74BF1A648352}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6152444" y="3968247"/>
-          <a:ext cx="1425222" cy="561420"/>
+        <a:xfrm flipV="1">
+          <a:off x="6866203" y="2235464"/>
+          <a:ext cx="6350" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -854,34 +1098,95 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754DB245-D083-4464-9F91-F3C0802AB881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12014200" y="3867150"/>
+          <a:ext cx="768350" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>77614</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>743857</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>56444</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Conector recto de flecha 25">
+        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9190DCEF-AB8F-419C-BF2B-C590AA2BD487}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D53C840-68DC-4DBA-84B4-664393FC1649}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6345971" y="5524500"/>
-          <a:ext cx="1428243" cy="1426230"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="12020550" y="4133850"/>
+          <a:ext cx="120650" cy="6350"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -909,32 +1214,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>35278</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7055</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>740833</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>35278</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Conector recto de flecha 14">
+        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1B4922-2EE5-4B2F-9286-B77B573B5ABC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDA8013-5170-419F-864D-A07B46207AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3083278" y="3125611"/>
-          <a:ext cx="4515555" cy="211667"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11995150" y="4622800"/>
+          <a:ext cx="1295400" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -962,23 +1267,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>61452</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92177</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>92177</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Conector recto de flecha 10">
+        <xdr:cNvPr id="40" name="Conector recto de flecha 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE23FB7-5C09-4E77-B207-92DCBF1AF804}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1361AC3-DE2F-4236-866F-5D7DA149E917}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -986,25 +1291,31 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10160000" y="2857500"/>
-          <a:ext cx="2089356" cy="0"/>
+          <a:off x="15113000" y="5791200"/>
+          <a:ext cx="571500" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1016,31 +1327,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1424214</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1442358</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127001</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Conector recto de flecha 15">
+        <xdr:cNvPr id="48" name="Conector recto de flecha 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD60724C-B735-4646-8354-41F38F6804D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBA602F-574B-40B5-BFC9-37CB3AC5F40C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="9978571" y="5515429"/>
-          <a:ext cx="18144" cy="598715"/>
+        <a:xfrm>
+          <a:off x="9029700" y="5461000"/>
+          <a:ext cx="3765550" cy="25400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1068,23 +1379,179 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>145142</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>23586</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Conector recto de flecha 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEDC72F-F2EC-457B-A47F-D6E83DC47091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13379450" y="6705600"/>
+          <a:ext cx="165100" cy="6350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582083</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>26458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107951</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Conector recto de flecha 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFBDC952-76AB-4DAC-B684-7F45B1DE479F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11059583" y="4471458"/>
+          <a:ext cx="2117" cy="822326"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>610659</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628386</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>145521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Conector recto 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC27B49-2DD7-40AE-8406-E822876BDF08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11088159" y="5675844"/>
+          <a:ext cx="17727" cy="2804052"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Arco 21">
+        <xdr:cNvPr id="75" name="Arco 74">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40631CE0-1C5B-47DE-A912-207ECE9F0085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B97D2CC-8933-49B5-AFEA-76E271824B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1092,13 +1559,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7174592" y="5916386"/>
-          <a:ext cx="312057" cy="363764"/>
+          <a:off x="10966449" y="5264150"/>
+          <a:ext cx="203201" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="arc">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 13372957"/>
-            <a:gd name="adj2" fmla="val 938538"/>
+            <a:gd name="adj1" fmla="val 16439618"/>
+            <a:gd name="adj2" fmla="val 4950770"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1129,36 +1596,39 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>452884</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>63799</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>125677</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>13229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>687917</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10583</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>694531</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Conector recto 23">
+        <xdr:cNvPr id="76" name="Conector recto de flecha 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAE1154-2E24-4E25-92C0-961ECECF5439}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197A4E2A-18B2-4C7C-887C-3FB31723FFAF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7480217" y="6001049"/>
-          <a:ext cx="235033" cy="126701"/>
+        <a:xfrm>
+          <a:off x="8321146" y="7791979"/>
+          <a:ext cx="1329531" cy="1283229"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1179,34 +1649,144 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>632619</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>131498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>179136</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>92135</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>651669</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35190</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Conector recto de flecha 26">
+        <xdr:cNvPr id="78" name="Conector recto de flecha 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E32E96-32B1-49E9-8DB3-9A73DDFA7DF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512E56BA-97A8-4B0F-995E-F6F93912F83F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6280150" y="5588000"/>
-          <a:ext cx="928436" cy="396935"/>
+          <a:off x="11110119" y="10317956"/>
+          <a:ext cx="19050" cy="459317"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>654844</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>33067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>661458</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171973</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Conector recto de flecha 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC53DC26-C3FF-44BB-8CAA-FACF42597721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11132344" y="10775150"/>
+          <a:ext cx="6614" cy="138906"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>324114</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>138906</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165365</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="Conector recto de flecha 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25D5297B-3121-4B63-BCFD-121BFDEFC408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16126354" y="6541823"/>
+          <a:ext cx="575469" cy="1587500"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1235,22 +1815,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>870857</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:colOff>6615</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145521</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Conector recto de flecha 29">
+        <xdr:cNvPr id="95" name="Conector recto de flecha 94">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64A8E73-8AB5-4091-9D7B-FC4F66826496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227395B3-E50B-471D-B180-D800CF25DE64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1258,8 +1838,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9425214" y="9116786"/>
-          <a:ext cx="18143" cy="458611"/>
+          <a:off x="8962761" y="7223126"/>
+          <a:ext cx="1911614" cy="515937"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1287,23 +1867,134 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>743857</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13230</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>747889</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>169334</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>668073</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Conector recto de flecha 32">
+        <xdr:cNvPr id="97" name="Conector recto 96">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDABAB90-A9CA-4591-A20D-93EA257DDF04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BA1F31-3512-4F92-8646-08E5C2358AAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11251407" y="7825053"/>
+          <a:ext cx="2176197" cy="403489"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>394359</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>48816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42199</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="100" name="Arco 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9784866E-DBC7-4C1D-A14D-416EE7F05405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17858795">
+          <a:off x="10927290" y="7586927"/>
+          <a:ext cx="297656" cy="408517"/>
+        </a:xfrm>
+        <a:prstGeom prst="arc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 15424604"/>
+            <a:gd name="adj2" fmla="val 4655224"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>33073</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>720989</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Conector recto de flecha 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC323CE-8E09-4880-8CEA-AE52F61B131A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1311,8 +2002,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9298214" y="9144000"/>
-          <a:ext cx="4032" cy="459620"/>
+          <a:off x="16595990" y="8975990"/>
+          <a:ext cx="1448593" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1340,32 +2031,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>6615</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>39687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>734787</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>46302</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>145521</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Conector recto de flecha 36">
+        <xdr:cNvPr id="109" name="Conector recto de flecha 108">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D76A531-7E0F-4E73-96ED-B5DB241AB784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00163B6-388F-44CC-87CC-356DFB78271B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11121571" y="8073571"/>
-          <a:ext cx="2204359" cy="689430"/>
+        <a:xfrm flipV="1">
+          <a:off x="17330209" y="10966979"/>
+          <a:ext cx="800364" cy="1772709"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1393,32 +2084,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>9072</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>45357</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>416718</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>33073</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>716643</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>90715</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171979</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152136</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Conector recto de flecha 39">
+        <xdr:cNvPr id="115" name="Conector recto de flecha 114">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F083ABF-B495-43A6-9BEB-2F9EB0400C2A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBBD0C7-17D4-446B-A7B7-96E092028DF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11076215" y="9842500"/>
-          <a:ext cx="2231571" cy="408215"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="16218958" y="11701198"/>
+          <a:ext cx="515938" cy="1045105"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1446,32 +2137,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>90714</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13231</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>689428</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99785</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>720989</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85989</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Conector recto de flecha 17">
+        <xdr:cNvPr id="118" name="Conector recto de flecha 117">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69BA5BF-C71B-4A45-9D41-73813122BE7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A23B05F-7378-461C-8B70-EF33E63094A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11121571" y="3900714"/>
-          <a:ext cx="2159000" cy="553357"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4292866" y="3783543"/>
+          <a:ext cx="1468436" cy="6613"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1796,746 +2487,1288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58083F9F-85F2-4079-90BF-BA44F34FE71E}">
-  <dimension ref="C3:Q69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180BB699-0A0B-48A2-B77B-15DA1A93CA76}">
+  <dimension ref="C3:AB96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L71" sqref="L71"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Z61" sqref="Z61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="6" max="6" width="2.90625" customWidth="1"/>
-    <col min="8" max="8" width="21.36328125" customWidth="1"/>
-    <col min="12" max="12" width="35.90625" customWidth="1"/>
-    <col min="17" max="17" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G3" s="15" t="s">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C3" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="H3" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="56"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="H4" s="54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="H6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="33"/>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="33"/>
+      <c r="J7" s="3"/>
+      <c r="N7" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="16"/>
-    </row>
-    <row r="4" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G4" s="28"/>
-      <c r="H4" s="26"/>
-    </row>
-    <row r="5" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G5" s="25" t="s">
+      <c r="O7" s="59"/>
+      <c r="P7" s="60"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="34"/>
+      <c r="J8" s="13"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="21"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="33"/>
+      <c r="J9" s="3"/>
+      <c r="N9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="40"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="33"/>
+      <c r="J10" s="3"/>
+      <c r="N10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="49"/>
+      <c r="P10" s="23"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="33"/>
+      <c r="J11" s="3"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="17"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="N12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="40"/>
+      <c r="P12" s="17"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="N13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="O13" s="40"/>
+      <c r="P13" s="17"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="N14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="40"/>
+      <c r="P14" s="17"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="N15" s="22"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="17" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="R17" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="S17" s="60"/>
+    </row>
+    <row r="18" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H18" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="60"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29"/>
+    </row>
+    <row r="19" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D19" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="60"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="5"/>
+      <c r="R19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="3"/>
+      <c r="O20" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D21" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="H21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="17"/>
+      <c r="N21" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="53"/>
+      <c r="R21" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="17"/>
+    </row>
+    <row r="22" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D22" s="2"/>
+      <c r="E22" s="5"/>
+      <c r="H22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="3"/>
+      <c r="N22" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="O22" s="55"/>
+      <c r="R22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="H23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="3"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="47"/>
+      <c r="R23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="H24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="17"/>
+      <c r="N24" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="O24" s="23"/>
+      <c r="R24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="H25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="3"/>
+      <c r="N25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="S25" s="50"/>
+    </row>
+    <row r="26" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="D26" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="3"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="24"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H27" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="17"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="R27" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="S27" s="23"/>
+    </row>
+    <row r="28" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H28" s="14"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="44"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+    </row>
+    <row r="29" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H29" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="47"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="64"/>
+    </row>
+    <row r="30" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H30" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="17"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" s="59"/>
+      <c r="S30" s="60"/>
+    </row>
+    <row r="31" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="17"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="21"/>
+      <c r="U31" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="V31" s="67"/>
+      <c r="W31" s="68"/>
+    </row>
+    <row r="32" spans="4:23" x14ac:dyDescent="0.35">
+      <c r="H32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="17"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="R32" s="40"/>
+      <c r="S32" s="17"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="40"/>
+      <c r="W32" s="17"/>
+    </row>
+    <row r="33" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H33" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="17"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
+      <c r="P33" s="38"/>
+      <c r="Q33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R33" s="33"/>
+      <c r="S33" s="3"/>
+      <c r="U33" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="V33" s="40"/>
+      <c r="W33" s="17"/>
+    </row>
+    <row r="34" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="3"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="40"/>
+      <c r="S34" s="17"/>
+      <c r="U34" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="V34" s="40"/>
+      <c r="W34" s="17"/>
+    </row>
+    <row r="35" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="1"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="33"/>
+      <c r="S35" s="3"/>
+      <c r="U35" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="V35" s="43"/>
+      <c r="W35" s="44"/>
+    </row>
+    <row r="36" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H36" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="19"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R36" s="40"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="69"/>
+    </row>
+    <row r="37" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="19"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="R37" s="62"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="64"/>
+    </row>
+    <row r="38" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="19"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" s="42"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="38"/>
+    </row>
+    <row r="39" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="19"/>
+      <c r="P39" s="65"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="38"/>
+    </row>
+    <row r="40" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H40" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="19"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="R40" s="40"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="38"/>
+    </row>
+    <row r="41" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="19"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R41" s="40"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="38"/>
+    </row>
+    <row r="42" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="H42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="11"/>
+      <c r="P42" s="38"/>
+      <c r="Q42" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R42" s="43"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="65"/>
+      <c r="X42" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="53"/>
+    </row>
+    <row r="43" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="P43" s="38"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="X43" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="55"/>
+    </row>
+    <row r="44" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="64"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="35"/>
+      <c r="Z44" s="35"/>
+      <c r="AA44" s="5"/>
+    </row>
+    <row r="45" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="R45" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="K5" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="16"/>
-    </row>
-    <row r="6" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G6" s="25" t="s">
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="73"/>
+      <c r="X45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="R46" s="4"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="5"/>
+      <c r="X46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="M47" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="59"/>
+      <c r="O47" s="60"/>
+      <c r="R47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="3"/>
+      <c r="X47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="8:27" x14ac:dyDescent="0.35">
+      <c r="M48" s="28"/>
+      <c r="N48" s="74"/>
+      <c r="O48" s="29"/>
+      <c r="R48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="44"/>
+      <c r="X48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="L49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="34"/>
-    </row>
-    <row r="7" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G7" s="25"/>
-      <c r="H7" s="27"/>
-      <c r="K7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G8" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="K8" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G9" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="27"/>
-      <c r="K9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" s="24"/>
-    </row>
-    <row r="10" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G10" s="25" t="s">
+      <c r="N49" s="40"/>
+      <c r="O49" s="17"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="5"/>
+      <c r="X49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M50" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="40"/>
+      <c r="O50" s="17"/>
+      <c r="R50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="K10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G11" s="28"/>
-      <c r="H11" s="26"/>
-      <c r="K11" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="27"/>
-    </row>
-    <row r="12" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="G12" s="31"/>
-      <c r="H12" s="32"/>
-      <c r="K12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K14" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="L14" s="27"/>
-      <c r="P14" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="D15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="18"/>
-    </row>
-    <row r="16" spans="4:17" x14ac:dyDescent="0.35">
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="P16" s="19" t="s">
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="3"/>
+      <c r="X50" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q16" s="18"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C17" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="K17" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="L17" s="27"/>
-      <c r="P17" s="19" t="s">
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M51" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="N51" s="40"/>
+      <c r="O51" s="17"/>
+      <c r="R51" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="3"/>
+      <c r="X51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q17" s="18"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="28"/>
-      <c r="D18" s="26"/>
-      <c r="K18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="27"/>
-      <c r="P18" s="19" t="s">
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M52" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N52" s="40"/>
+      <c r="O52" s="17"/>
+      <c r="R52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="3"/>
+      <c r="X52" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M53" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="N53" s="41"/>
+      <c r="O53" s="19"/>
+      <c r="R53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="3"/>
+      <c r="X53" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+    </row>
+    <row r="54" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M54" s="36"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="15"/>
+      <c r="R54" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="63"/>
+      <c r="X54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M55" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N55" s="46"/>
+      <c r="O55" s="47"/>
+      <c r="R55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="3"/>
+      <c r="X55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="M56" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="49"/>
+      <c r="O56" s="23"/>
+      <c r="R56" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="63"/>
+      <c r="X56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="18"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C19" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="7"/>
-      <c r="I19" s="6"/>
-      <c r="K19" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="27"/>
-      <c r="P19" s="20" t="s">
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="R57" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="63"/>
+      <c r="X57" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="21"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C20" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="27"/>
-      <c r="K20" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="27"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="27"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C22" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="G22" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="K22" s="19" t="s">
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="R58" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="3"/>
+      <c r="X58" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y58" s="62"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="63"/>
+    </row>
+    <row r="59" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="R59" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="3"/>
+      <c r="X59" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y59" s="76"/>
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="77"/>
+    </row>
+    <row r="60" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="N60" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="O60" s="53"/>
+      <c r="R60" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="3"/>
+    </row>
+    <row r="61" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="N61" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="O61" s="55"/>
+      <c r="R61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="3"/>
+    </row>
+    <row r="62" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="N62" s="20"/>
+      <c r="O62" s="21"/>
+      <c r="R62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="3"/>
+    </row>
+    <row r="63" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="N63" s="22"/>
+      <c r="O63" s="23"/>
+      <c r="R63" s="36"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="15"/>
+    </row>
+    <row r="64" spans="12:28" x14ac:dyDescent="0.35">
+      <c r="Y64" s="69"/>
+      <c r="Z64" s="69"/>
+      <c r="AA64" s="69"/>
+      <c r="AB64" s="69"/>
+    </row>
+    <row r="65" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y65" s="69"/>
+      <c r="Z65" s="69"/>
+      <c r="AA65" s="69"/>
+      <c r="AB65" s="69"/>
+    </row>
+    <row r="66" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y66" s="65"/>
+      <c r="Z66" s="65"/>
+      <c r="AA66" s="65"/>
+      <c r="AB66" s="65"/>
+    </row>
+    <row r="67" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y67" s="65"/>
+      <c r="Z67" s="65"/>
+      <c r="AA67" s="65"/>
+      <c r="AB67" s="65"/>
+    </row>
+    <row r="68" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y68" s="65"/>
+      <c r="Z68" s="65"/>
+      <c r="AA68" s="65"/>
+      <c r="AB68" s="65"/>
+    </row>
+    <row r="69" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y69" s="65"/>
+      <c r="Z69" s="65"/>
+      <c r="AA69" s="65"/>
+      <c r="AB69" s="65"/>
+    </row>
+    <row r="70" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V70" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="W70" s="60"/>
+      <c r="Y70" s="65"/>
+      <c r="Z70" s="65"/>
+      <c r="AA70" s="65"/>
+      <c r="AB70" s="65"/>
+    </row>
+    <row r="71" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V71" s="4"/>
+      <c r="W71" s="5"/>
+      <c r="Y71" s="65"/>
+      <c r="Z71" s="65"/>
+      <c r="AA71" s="65"/>
+      <c r="AB71" s="65"/>
+    </row>
+    <row r="72" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V72" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="24"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C23" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
-      <c r="K23" s="35" t="s">
+      <c r="W72" s="5"/>
+      <c r="Y72" s="65"/>
+      <c r="Z72" s="65"/>
+      <c r="AA72" s="65"/>
+      <c r="AB72" s="65"/>
+    </row>
+    <row r="73" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V73" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L23" s="40"/>
-      <c r="P23" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q23" s="16"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="G24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24" s="35" t="s">
+      <c r="W73" s="5"/>
+      <c r="Y73" s="65"/>
+      <c r="Z73" s="65"/>
+      <c r="AA73" s="65"/>
+      <c r="AB73" s="65"/>
+    </row>
+    <row r="74" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="40"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="18"/>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="28"/>
-      <c r="D25" s="26"/>
-      <c r="G25" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="24"/>
-      <c r="K25" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="L25" s="43"/>
-      <c r="P25" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q25" s="18"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="C26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="G26" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="27"/>
-      <c r="K26" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="L26" s="43"/>
-      <c r="P26" s="19"/>
-      <c r="Q26" s="18"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="24"/>
-      <c r="K27" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="L27" s="43"/>
-      <c r="P27" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q27" s="18"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G28" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="27"/>
-      <c r="K28" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="L28" s="43"/>
-      <c r="P28" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q28" s="39"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G29" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="H29" s="23"/>
-      <c r="K29" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="L29" s="43"/>
-      <c r="P29" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q29" s="18"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G30" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="43"/>
-      <c r="K30" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="41"/>
-      <c r="P30" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="37"/>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.35">
-      <c r="G32" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G33" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G34" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" s="37"/>
-    </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K35" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L35" s="16"/>
-    </row>
-    <row r="36" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-    </row>
-    <row r="37" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G37" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="K37" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="L37" s="24"/>
-    </row>
-    <row r="38" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G38" s="28"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="24"/>
-    </row>
-    <row r="39" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G39" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="18"/>
-    </row>
-    <row r="40" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G40" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="H40" s="27"/>
-      <c r="K40" s="19" t="s">
+      <c r="W74" s="5"/>
+      <c r="Y74" s="69"/>
+      <c r="Z74" s="69"/>
+      <c r="AA74" s="69"/>
+      <c r="AB74" s="69"/>
+    </row>
+    <row r="75" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V75" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L40" s="24"/>
-    </row>
-    <row r="41" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G41" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="27"/>
-      <c r="K41" s="19" t="s">
+      <c r="W75" s="9"/>
+      <c r="Y75" s="69"/>
+      <c r="Z75" s="69"/>
+      <c r="AA75" s="69"/>
+      <c r="AB75" s="69"/>
+    </row>
+    <row r="76" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V76" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L41" s="24"/>
-    </row>
-    <row r="42" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G42" s="25"/>
-      <c r="H42" s="27"/>
-      <c r="K42" s="19" t="s">
+      <c r="W76" s="9"/>
+      <c r="Y76" s="69"/>
+      <c r="Z76" s="69"/>
+      <c r="AA76" s="69"/>
+      <c r="AB76" s="69"/>
+    </row>
+    <row r="77" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="R77" s="34"/>
+      <c r="S77" s="34"/>
+      <c r="V77" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="24"/>
-    </row>
-    <row r="43" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G43" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="H43" s="27"/>
-      <c r="K43" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="L43" s="24"/>
-    </row>
-    <row r="44" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G44" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H44" s="4"/>
-      <c r="K44" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="L44" s="24"/>
-    </row>
-    <row r="45" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G45" s="25"/>
-      <c r="H45" s="27"/>
-      <c r="K45" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="L45" s="23"/>
-    </row>
-    <row r="46" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="G46" s="31"/>
-      <c r="H46" s="32"/>
-      <c r="K46" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="L46" s="24"/>
-    </row>
-    <row r="47" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K47" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L47" s="12"/>
-    </row>
-    <row r="48" spans="7:17" x14ac:dyDescent="0.35">
-      <c r="K48" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="L48" s="12"/>
-      <c r="P48" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="16"/>
-    </row>
-    <row r="49" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K49" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L49" s="12"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="18"/>
-    </row>
-    <row r="50" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K50" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L50" s="13"/>
-      <c r="P50" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q50" s="18"/>
-    </row>
-    <row r="51" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P51" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q51" s="18"/>
-    </row>
-    <row r="52" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P52" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" s="18"/>
-    </row>
-    <row r="53" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="P53" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q53" s="23"/>
-    </row>
-    <row r="54" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K54" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="L54" s="16"/>
-      <c r="P54" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q54" s="23"/>
-    </row>
-    <row r="55" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K55" s="17"/>
-      <c r="L55" s="18"/>
-      <c r="P55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q55" s="23"/>
-    </row>
-    <row r="56" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K56" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="24"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="21"/>
-    </row>
-    <row r="57" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K57" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="L57" s="24"/>
-    </row>
-    <row r="58" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K58" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L58" s="18"/>
-    </row>
-    <row r="59" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K59" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="L59" s="24"/>
-    </row>
-    <row r="60" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K60" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" s="24"/>
-    </row>
-    <row r="61" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K61" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="L61" s="24"/>
-    </row>
-    <row r="62" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K62" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L62" s="24"/>
-    </row>
-    <row r="63" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K63" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="L63" s="24"/>
-    </row>
-    <row r="64" spans="11:17" x14ac:dyDescent="0.35">
-      <c r="K64" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="L64" s="24"/>
-    </row>
-    <row r="65" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K65" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="L65" s="24"/>
-    </row>
-    <row r="66" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K66" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="L66" s="24"/>
-    </row>
-    <row r="67" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K67" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" s="24"/>
-    </row>
-    <row r="68" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K68" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="L68" s="22"/>
-    </row>
-    <row r="69" spans="11:12" x14ac:dyDescent="0.35">
-      <c r="K69" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="L69" s="45"/>
+      <c r="W77" s="27"/>
+      <c r="Y77" s="69"/>
+      <c r="Z77" s="69"/>
+      <c r="AA77" s="69"/>
+      <c r="AB77" s="69"/>
+    </row>
+    <row r="78" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="V78" s="31"/>
+      <c r="W78" s="32"/>
+      <c r="Y78" s="69"/>
+      <c r="Z78" s="69"/>
+      <c r="AA78" s="69"/>
+      <c r="AB78" s="69"/>
+    </row>
+    <row r="79" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y79" s="69"/>
+      <c r="Z79" s="69"/>
+      <c r="AA79" s="69"/>
+      <c r="AB79" s="69"/>
+    </row>
+    <row r="80" spans="18:28" x14ac:dyDescent="0.35">
+      <c r="Y80" s="69"/>
+      <c r="Z80" s="69"/>
+      <c r="AA80" s="69"/>
+      <c r="AB80" s="69"/>
+    </row>
+    <row r="81" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y81" s="69"/>
+      <c r="Z81" s="69"/>
+      <c r="AA81" s="69"/>
+      <c r="AB81" s="69"/>
+    </row>
+    <row r="82" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y82" s="65"/>
+      <c r="Z82" s="65"/>
+      <c r="AA82" s="65"/>
+      <c r="AB82" s="65"/>
+    </row>
+    <row r="83" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y83" s="65"/>
+      <c r="Z83" s="65"/>
+      <c r="AA83" s="65"/>
+      <c r="AB83" s="65"/>
+    </row>
+    <row r="84" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y84" s="65"/>
+      <c r="Z84" s="65"/>
+      <c r="AA84" s="65"/>
+      <c r="AB84" s="65"/>
+    </row>
+    <row r="85" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y85" s="65"/>
+      <c r="Z85" s="65"/>
+      <c r="AA85" s="65"/>
+      <c r="AB85" s="65"/>
+    </row>
+    <row r="86" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y86" s="65"/>
+      <c r="Z86" s="65"/>
+      <c r="AA86" s="65"/>
+      <c r="AB86" s="65"/>
+    </row>
+    <row r="87" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y87" s="65"/>
+      <c r="Z87" s="65"/>
+      <c r="AA87" s="65"/>
+      <c r="AB87" s="65"/>
+    </row>
+    <row r="88" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y88" s="65"/>
+      <c r="Z88" s="65"/>
+      <c r="AA88" s="65"/>
+      <c r="AB88" s="65"/>
+    </row>
+    <row r="89" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y89" s="65"/>
+      <c r="Z89" s="65"/>
+      <c r="AA89" s="65"/>
+      <c r="AB89" s="65"/>
+    </row>
+    <row r="90" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y90" s="65"/>
+      <c r="Z90" s="65"/>
+      <c r="AA90" s="65"/>
+      <c r="AB90" s="65"/>
+    </row>
+    <row r="91" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y91" s="65"/>
+      <c r="Z91" s="65"/>
+      <c r="AA91" s="65"/>
+      <c r="AB91" s="65"/>
+    </row>
+    <row r="92" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y92" s="65"/>
+      <c r="Z92" s="65"/>
+      <c r="AA92" s="65"/>
+      <c r="AB92" s="65"/>
+    </row>
+    <row r="93" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y93" s="65"/>
+      <c r="Z93" s="65"/>
+      <c r="AA93" s="65"/>
+      <c r="AB93" s="65"/>
+    </row>
+    <row r="94" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y94" s="65"/>
+      <c r="Z94" s="65"/>
+      <c r="AA94" s="65"/>
+      <c r="AB94" s="65"/>
+    </row>
+    <row r="95" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y95" s="65"/>
+      <c r="Z95" s="65"/>
+      <c r="AA95" s="65"/>
+      <c r="AB95" s="65"/>
+    </row>
+    <row r="96" spans="25:28" x14ac:dyDescent="0.35">
+      <c r="Y96" s="65"/>
+      <c r="Z96" s="65"/>
+      <c r="AA96" s="65"/>
+      <c r="AB96" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
+  <mergeCells count="153">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="X59:AA59"/>
+    <mergeCell ref="X42:AA42"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="X45:AA45"/>
+    <mergeCell ref="X46:AA46"/>
+    <mergeCell ref="X47:AA47"/>
+    <mergeCell ref="X48:AA48"/>
+    <mergeCell ref="X49:AA49"/>
+    <mergeCell ref="X50:AA50"/>
+    <mergeCell ref="R62:U62"/>
+    <mergeCell ref="R63:U63"/>
+    <mergeCell ref="X43:AA43"/>
+    <mergeCell ref="X44:AA44"/>
+    <mergeCell ref="R56:U56"/>
+    <mergeCell ref="R57:U57"/>
+    <mergeCell ref="R58:U58"/>
+    <mergeCell ref="R59:U59"/>
+    <mergeCell ref="R60:U60"/>
+    <mergeCell ref="R61:U61"/>
+    <mergeCell ref="R45:U45"/>
+    <mergeCell ref="R46:U46"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="R48:U48"/>
+    <mergeCell ref="R49:U49"/>
+    <mergeCell ref="R50:U50"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="R52:U52"/>
+    <mergeCell ref="R53:U53"/>
+    <mergeCell ref="R54:U54"/>
+    <mergeCell ref="R55:U55"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M56:O56"/>
+    <mergeCell ref="U33:W33"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="U32:W32"/>
+    <mergeCell ref="U34:W34"/>
+    <mergeCell ref="U35:W35"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="U31:W31"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
